--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_2_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2490241.570101186</v>
+        <v>2490241.570101295</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800578</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800578</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.79076334</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.79076334</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647382362.376274</v>
+        <v>62380380.03707973</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200974</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816778</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686626633</v>
       </c>
       <c r="C5" t="n">
         <v>449.4745782429939</v>
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -1001,7 +1001,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W6" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522552</v>
       </c>
       <c r="X6" t="n">
         <v>419.8627394453875</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775742</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>107.3959878205675</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W11" t="n">
-        <v>636.9851316879694</v>
+        <v>636.9851316880361</v>
       </c>
       <c r="X11" t="n">
         <v>592.2818334606677</v>
@@ -1621,7 +1621,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
-        <v>402.9749453138904</v>
+        <v>402.9749453139574</v>
       </c>
       <c r="F14" t="n">
         <v>404.8896287080119</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201641</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775742</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2149,7 +2149,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W20" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X20" t="n">
         <v>592.2818334606677</v>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>57.56516074743381</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963201042</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767762264</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611603772</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
-        <v>391.1574709203184</v>
+        <v>392.6911708778912</v>
       </c>
       <c r="U27" t="n">
         <v>400.0036144771679</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>14.39810218700126</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
         <v>449.4745782429939</v>
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963214541</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963202223</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3131,7 +3131,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H33" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816775</v>
       </c>
       <c r="I33" t="n">
         <v>108.929687778141</v>
@@ -3164,7 +3164,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>14.39810218700123</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829090245</v>
       </c>
       <c r="V35" t="n">
         <v>629.8510241668239</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963202223</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3811,10 +3811,10 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883899533</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F42" t="n">
-        <v>338.1025423803039</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
         <v>322.5970075731406</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768742</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V44" t="n">
         <v>629.8510241668239</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898273</v>
       </c>
     </row>
     <row r="45">
@@ -4076,13 +4076,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H45" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I45" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205672</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768742</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,49 +4312,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342872</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756535</v>
       </c>
       <c r="K2" t="n">
-        <v>1830.673957362034</v>
+        <v>1794.645504192965</v>
       </c>
       <c r="L2" t="n">
-        <v>2748.266680678617</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M2" t="n">
-        <v>4280.114215286949</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N2" t="n">
-        <v>4845.157279159621</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O2" t="n">
-        <v>5755.312162100365</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q2" t="n">
         <v>7048</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4391,76 +4391,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2285.562842359567</v>
+        <v>2285.562842359568</v>
       </c>
       <c r="C3" t="n">
-        <v>1920.815456050962</v>
+        <v>1920.815456050963</v>
       </c>
       <c r="D3" t="n">
-        <v>1569.363247063383</v>
+        <v>1569.363247063384</v>
       </c>
       <c r="E3" t="n">
-        <v>1223.229815526098</v>
+        <v>1223.229815526099</v>
       </c>
       <c r="F3" t="n">
-        <v>880.1629040736968</v>
+        <v>880.1629040736977</v>
       </c>
       <c r="G3" t="n">
-        <v>554.3073408685043</v>
+        <v>554.3073408685052</v>
       </c>
       <c r="H3" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546892</v>
       </c>
       <c r="I3" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J3" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K3" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L3" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M3" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N3" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O3" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P3" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q3" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R3" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S3" t="n">
-        <v>5157.673230555786</v>
+        <v>5157.673230555787</v>
       </c>
       <c r="T3" t="n">
-        <v>4761.01548219428</v>
+        <v>4761.015482194281</v>
       </c>
       <c r="U3" t="n">
-        <v>4356.971427166837</v>
+        <v>4356.971427166838</v>
       </c>
       <c r="V3" t="n">
-        <v>3938.273783539039</v>
+        <v>3938.27378353904</v>
       </c>
       <c r="W3" t="n">
         <v>3501.533235145273</v>
       </c>
       <c r="X3" t="n">
-        <v>3077.429457927709</v>
+        <v>3077.42945792771</v>
       </c>
       <c r="Y3" t="n">
-        <v>2674.003808668988</v>
+        <v>2674.003808668989</v>
       </c>
     </row>
     <row r="4">
@@ -4470,76 +4470,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J4" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967149</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6131206966358</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966358</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="Q4" t="n">
-        <v>351.2038120028187</v>
+        <v>351.20381200282</v>
       </c>
       <c r="R4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="S4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="T4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="U4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="V4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="5">
@@ -4549,49 +4549,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H5" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756535</v>
       </c>
       <c r="K5" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043493</v>
       </c>
       <c r="L5" t="n">
-        <v>2936.062862426063</v>
+        <v>2257.013012360076</v>
       </c>
       <c r="M5" t="n">
-        <v>3418.242061939566</v>
+        <v>3788.860546968408</v>
       </c>
       <c r="N5" t="n">
-        <v>3983.285125812238</v>
+        <v>4353.90361084108</v>
       </c>
       <c r="O5" t="n">
-        <v>4893.440008752982</v>
+        <v>5264.058493781824</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>6099.925821879237</v>
       </c>
       <c r="Q5" t="n">
         <v>7048</v>
@@ -4600,25 +4600,25 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183246</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464073</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542985</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818921</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908873</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665774</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430616</v>
       </c>
     </row>
     <row r="6">
@@ -4628,76 +4628,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C6" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D6" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E6" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F6" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G6" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546892</v>
       </c>
       <c r="I6" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J6" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K6" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L6" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M6" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N6" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O6" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P6" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q6" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R6" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S6" t="n">
-        <v>5157.673230555786</v>
+        <v>5157.673230555787</v>
       </c>
       <c r="T6" t="n">
-        <v>4761.01548219428</v>
+        <v>4761.015482194281</v>
       </c>
       <c r="U6" t="n">
-        <v>4356.971427166837</v>
+        <v>4356.971427166838</v>
       </c>
       <c r="V6" t="n">
-        <v>3938.273783539039</v>
+        <v>3938.27378353904</v>
       </c>
       <c r="W6" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X6" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y6" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="7">
@@ -4707,76 +4707,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967149</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104934</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="Q7" t="n">
-        <v>351.2038120028187</v>
+        <v>351.20381200282</v>
       </c>
       <c r="R7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="S7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="T7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="U7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="V7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="8">
@@ -4786,49 +4786,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H8" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695948</v>
       </c>
       <c r="K8" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263788</v>
       </c>
       <c r="L8" t="n">
-        <v>3797.935015773446</v>
+        <v>2712.238227509614</v>
       </c>
       <c r="M8" t="n">
-        <v>4280.114215286949</v>
+        <v>3194.417427023117</v>
       </c>
       <c r="N8" t="n">
-        <v>4845.157279159621</v>
+        <v>4845.157279159689</v>
       </c>
       <c r="O8" t="n">
-        <v>5755.312162100365</v>
+        <v>5755.312162100433</v>
       </c>
       <c r="P8" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.179490197846</v>
       </c>
       <c r="Q8" t="n">
         <v>7048</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155884</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.115762436712</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515623</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403254</v>
       </c>
     </row>
     <row r="9">
@@ -4865,76 +4865,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2285.562842359567</v>
+        <v>2285.562842359568</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.815456050962</v>
+        <v>1920.815456050963</v>
       </c>
       <c r="D9" t="n">
-        <v>1569.363247063383</v>
+        <v>1569.363247063384</v>
       </c>
       <c r="E9" t="n">
-        <v>1223.229815526098</v>
+        <v>1223.229815526099</v>
       </c>
       <c r="F9" t="n">
-        <v>880.1629040736968</v>
+        <v>880.1629040736977</v>
       </c>
       <c r="G9" t="n">
-        <v>554.3073408685043</v>
+        <v>554.3073408685052</v>
       </c>
       <c r="H9" t="n">
-        <v>249.4407957783515</v>
+        <v>249.4407957783524</v>
       </c>
       <c r="I9" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K9" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L9" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M9" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N9" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O9" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P9" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q9" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R9" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555786</v>
+        <v>5157.673230555787</v>
       </c>
       <c r="T9" t="n">
-        <v>4761.01548219428</v>
+        <v>4761.015482194281</v>
       </c>
       <c r="U9" t="n">
-        <v>4356.971427166837</v>
+        <v>4356.971427166838</v>
       </c>
       <c r="V9" t="n">
-        <v>3938.273783539039</v>
+        <v>3938.27378353904</v>
       </c>
       <c r="W9" t="n">
         <v>3501.533235145273</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927709</v>
+        <v>3077.42945792771</v>
       </c>
       <c r="Y9" t="n">
-        <v>2674.003808668988</v>
+        <v>2674.003808668989</v>
       </c>
     </row>
     <row r="10">
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178888</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104948</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028187</v>
+        <v>351.2038120028201</v>
       </c>
       <c r="R10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="S10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="T10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="U10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="V10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H11" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397718</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735719</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303558</v>
       </c>
       <c r="L11" t="n">
-        <v>2332.601309399844</v>
+        <v>2758.602998620142</v>
       </c>
       <c r="M11" t="n">
-        <v>2814.780508913348</v>
+        <v>3240.782198133644</v>
       </c>
       <c r="N11" t="n">
-        <v>3379.82357278602</v>
+        <v>4118.580088859808</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>5028.734971800552</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897897</v>
+        <v>5864.602299897965</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237065</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183246</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464073</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542985</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818921</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403254</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H12" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546892</v>
       </c>
       <c r="I12" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249246</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967149</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="14">
@@ -5260,49 +5260,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546197</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048223</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351405</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H14" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397718</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>1055.002360625193</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1794.645504193031</v>
       </c>
       <c r="L14" t="n">
-        <v>2332.601309399844</v>
+        <v>2712.238227509614</v>
       </c>
       <c r="M14" t="n">
-        <v>2814.780508913348</v>
+        <v>3194.417427023117</v>
       </c>
       <c r="N14" t="n">
-        <v>3379.82357278602</v>
+        <v>4845.157279159689</v>
       </c>
       <c r="O14" t="n">
-        <v>4289.978455726764</v>
+        <v>5755.312162100433</v>
       </c>
       <c r="P14" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197846</v>
       </c>
       <c r="Q14" t="n">
         <v>7048</v>
@@ -5311,25 +5311,25 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183246</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464073</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542985</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818921</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908873</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665774</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430616</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E15" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F15" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H15" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546892</v>
       </c>
       <c r="I15" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K15" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L15" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M15" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N15" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O15" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P15" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q15" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967149</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V16" t="n">
-        <v>140.96</v>
+        <v>307.841604589321</v>
       </c>
       <c r="W16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546197</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048223</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351405</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.81285907174</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361343545</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233995</v>
       </c>
       <c r="H17" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I17" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J17" t="n">
-        <v>599.7771454756521</v>
+        <v>599.7771454756535</v>
       </c>
       <c r="K17" t="n">
-        <v>1339.420289043491</v>
+        <v>1339.420289043493</v>
       </c>
       <c r="L17" t="n">
-        <v>2748.266680678617</v>
+        <v>2257.013012360076</v>
       </c>
       <c r="M17" t="n">
-        <v>4280.114215286949</v>
+        <v>3788.860546968408</v>
       </c>
       <c r="N17" t="n">
-        <v>4845.157279159621</v>
+        <v>4353.90361084108</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100365</v>
+        <v>5755.312162100433</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.179490197846</v>
       </c>
       <c r="Q17" t="n">
         <v>7048</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183246</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464073</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542985</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818921</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908873</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665774</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430616</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H18" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546892</v>
       </c>
       <c r="I18" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967149</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="20">
@@ -5734,49 +5734,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H20" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>599.7771454756535</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>1408.776586572671</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>2326.369309889254</v>
       </c>
       <c r="M20" t="n">
-        <v>3788.860546968407</v>
+        <v>2808.548509402756</v>
       </c>
       <c r="N20" t="n">
-        <v>4353.903610841079</v>
+        <v>3373.591573275428</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100365</v>
+        <v>4283.746456216172</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.485937660968</v>
       </c>
       <c r="Q20" t="n">
         <v>7048</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155884</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.115762436712</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515623</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403254</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D21" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E21" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H21" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546892</v>
       </c>
       <c r="I21" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W21" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X21" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y21" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967149</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L22" t="n">
-        <v>275.6639043471516</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M22" t="n">
-        <v>275.6639043471516</v>
+        <v>199.1066270176113</v>
       </c>
       <c r="N22" t="n">
-        <v>275.6639043471516</v>
+        <v>199.1066270176113</v>
       </c>
       <c r="O22" t="n">
-        <v>140.96</v>
+        <v>199.1066270176113</v>
       </c>
       <c r="P22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="R22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="S22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="T22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546135</v>
+        <v>2580.161715518845</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048162</v>
+        <v>2126.146990020871</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351343</v>
+        <v>1711.662994324053</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071678</v>
+        <v>1303.215227044388</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342926</v>
+        <v>894.235804107002</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233376</v>
+        <v>492.3327682960469</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397817</v>
       </c>
       <c r="J23" t="n">
-        <v>1025.778834695947</v>
+        <v>938.1187228626875</v>
       </c>
       <c r="K23" t="n">
-        <v>1929.23353763461</v>
+        <v>1677.761866430526</v>
       </c>
       <c r="L23" t="n">
-        <v>2846.826260951193</v>
+        <v>2595.354589747109</v>
       </c>
       <c r="M23" t="n">
-        <v>3329.005460464696</v>
+        <v>3077.533789260612</v>
       </c>
       <c r="N23" t="n">
-        <v>3894.048524337368</v>
+        <v>4728.273641397184</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337368</v>
+        <v>5638.428524337928</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434781</v>
+        <v>6474.295852435342</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362237563</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155894</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464011</v>
+        <v>6118.115762436721</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542923</v>
+        <v>5462.811290515633</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818859</v>
+        <v>4826.598134791569</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908811</v>
+        <v>4181.77644188152</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665712</v>
+        <v>3583.511963638422</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430554</v>
+        <v>3067.029708403264</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235915</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.36464792731</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939731</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402446</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500446</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448521</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546992</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149331</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721309</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374328</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117187</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215322</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618206</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368547</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249727</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637292</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432133</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070627</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043185</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415387</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702162</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804057</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545336</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967249</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="Q25" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="R25" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="S25" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893309</v>
       </c>
       <c r="T25" t="n">
-        <v>293.2980670266921</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000113</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546654</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.74462204868</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351862</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859072197</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>892.833436134811</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960461</v>
       </c>
       <c r="H26" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756627</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043502</v>
       </c>
       <c r="L26" t="n">
-        <v>2631.383042915614</v>
+        <v>2257.013012360085</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>3788.860546968417</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4353.903610841089</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5264.058493781833</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490198304</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183703</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.71339446453</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543442</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819377</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073909329</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.10959566623</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340431072</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235914</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927309</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.91243893973</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402445</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500437</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448512</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546984</v>
       </c>
       <c r="I27" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149321</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213089</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374327</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117186</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215321</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182059</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368546</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249726</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372919</v>
       </c>
       <c r="S27" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432133</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070626</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043184</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415386</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021619</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804056</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545335</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="H28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="I28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967241</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="U28" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893301</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000105</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347547527</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622049553</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626352735</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.81285907307</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361356841</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003247291</v>
       </c>
       <c r="H29" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397984</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154505</v>
       </c>
       <c r="K29" t="n">
-        <v>1713.790319599031</v>
+        <v>1415.00858608329</v>
       </c>
       <c r="L29" t="n">
-        <v>2631.383042915614</v>
+        <v>2332.601309399873</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913375</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>4235.463726624142</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609564885</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.485937662299</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625184576</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394465403</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922544315</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.19576682025</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073910202</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595667103</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340431945</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235931</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927326</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939748</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402462</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500612</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448687</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876547158</v>
       </c>
       <c r="I30" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149497</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213107</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374345</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117204</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215338</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182076</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368564</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249743</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372936</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.22242243215</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070643</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043201</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415403</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021637</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804073</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545352</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="E31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="F31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="H31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="I31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="J31" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967415</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="R31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="S31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893476</v>
       </c>
       <c r="V31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="W31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>140.960000000028</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546257</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048283</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351465</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.8128590718</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361344145</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003234595</v>
       </c>
       <c r="H32" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I32" t="n">
-        <v>140.96</v>
+        <v>216.548297039773</v>
       </c>
       <c r="J32" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154251</v>
       </c>
       <c r="K32" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083264</v>
       </c>
       <c r="L32" t="n">
-        <v>3083.800289043491</v>
+        <v>2332.601309399847</v>
       </c>
       <c r="M32" t="n">
-        <v>3565.979488556994</v>
+        <v>2814.78050891335</v>
       </c>
       <c r="N32" t="n">
-        <v>4131.022552429667</v>
+        <v>4465.520361049922</v>
       </c>
       <c r="O32" t="n">
-        <v>5041.17743537041</v>
+        <v>5375.675243990666</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6211.542572088079</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183307</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464134</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543045</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818981</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908933</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665834</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430676</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359569</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050964</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063385</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.2298155261</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736987</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685061</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546905</v>
       </c>
       <c r="I33" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149242</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213081</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374319</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117178</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215313</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182051</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368538</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249718</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555788</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.015482194282</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166839</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539041</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145274</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927711</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.00380866899</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="H34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967161</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626301</v>
       </c>
       <c r="V34" t="n">
-        <v>140.96</v>
+        <v>155.5035375626301</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
     </row>
     <row r="35">
@@ -6919,49 +6919,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518836</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020862</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324044</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044379</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069931</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960382</v>
       </c>
       <c r="H35" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J35" t="n">
-        <v>696.7804792928897</v>
+        <v>599.7771454756547</v>
       </c>
       <c r="K35" t="n">
-        <v>1436.423622860729</v>
+        <v>2049.126655391362</v>
       </c>
       <c r="L35" t="n">
-        <v>2354.016346177312</v>
+        <v>2966.719378707945</v>
       </c>
       <c r="M35" t="n">
-        <v>2836.195545690814</v>
+        <v>3448.898578221448</v>
       </c>
       <c r="N35" t="n">
-        <v>3401.238609563487</v>
+        <v>4013.94164209412</v>
       </c>
       <c r="O35" t="n">
-        <v>5145.618609563487</v>
+        <v>4924.096525034864</v>
       </c>
       <c r="P35" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197907</v>
       </c>
       <c r="Q35" t="n">
         <v>7048</v>
@@ -6970,25 +6970,25 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183307</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464134</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515624</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881511</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403255</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235906</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927301</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939722</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500357</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448433</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546905</v>
       </c>
       <c r="I36" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149242</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213081</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374319</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117178</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215313</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182051</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368538</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249718</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432124</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070618</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415378</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021611</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804048</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="H37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967161</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="V37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546257</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048283</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351465</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.8128590718</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361344145</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003234595</v>
       </c>
       <c r="H38" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>216.548297039773</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154251</v>
       </c>
       <c r="K38" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083264</v>
       </c>
       <c r="L38" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399847</v>
       </c>
       <c r="M38" t="n">
-        <v>3240.782198133642</v>
+        <v>3301.358424176692</v>
       </c>
       <c r="N38" t="n">
-        <v>3805.825262006314</v>
+        <v>3866.401488049364</v>
       </c>
       <c r="O38" t="n">
-        <v>4776.556370989979</v>
+        <v>4776.556370990108</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434904</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237126</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183307</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464134</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543045</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818981</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908933</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665834</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430676</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235906</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927301</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939722</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500357</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448433</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546905</v>
       </c>
       <c r="I39" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149242</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213081</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374319</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117178</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215313</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182051</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368538</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249718</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249247</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432124</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070618</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415378</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021611</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804048</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967161</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="S40" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="T40" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
     </row>
     <row r="41">
@@ -7393,49 +7393,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518836</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020862</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324044</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044379</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069931</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960382</v>
       </c>
       <c r="H41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I41" t="n">
-        <v>140.96</v>
+        <v>216.548297039773</v>
       </c>
       <c r="J41" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154251</v>
       </c>
       <c r="K41" t="n">
-        <v>2018.47013910948</v>
+        <v>1415.008586083264</v>
       </c>
       <c r="L41" t="n">
-        <v>2936.062862426063</v>
+        <v>2332.601309399847</v>
       </c>
       <c r="M41" t="n">
-        <v>3418.242061939566</v>
+        <v>2814.78050891335</v>
       </c>
       <c r="N41" t="n">
-        <v>3983.285125812238</v>
+        <v>4465.520361049922</v>
       </c>
       <c r="O41" t="n">
-        <v>4893.440008752982</v>
+        <v>5375.675243990666</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.179490197907</v>
       </c>
       <c r="Q41" t="n">
         <v>7048</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183307</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464134</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543045</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818981</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908933</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665834</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403255</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235906</v>
       </c>
       <c r="C42" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927301</v>
       </c>
       <c r="D42" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.912438939722</v>
       </c>
       <c r="E42" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500357</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448433</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546905</v>
       </c>
       <c r="I42" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149242</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213081</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374319</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117178</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215313</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182051</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368538</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249718</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432124</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070618</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415378</v>
       </c>
       <c r="W42" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021611</v>
       </c>
       <c r="X42" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804048</v>
       </c>
       <c r="Y42" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967161</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471541</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754444</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="T43" t="n">
-        <v>293.2980670266921</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="U43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
     </row>
     <row r="44">
@@ -7630,49 +7630,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518836</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020862</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324044</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044379</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069931</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960382</v>
       </c>
       <c r="H44" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I44" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J44" t="n">
-        <v>599.7771454756521</v>
+        <v>599.7771454756547</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.420289043491</v>
+        <v>1339.420289043494</v>
       </c>
       <c r="L44" t="n">
-        <v>2257.013012360075</v>
+        <v>2257.013012360077</v>
       </c>
       <c r="M44" t="n">
-        <v>3418.242061939566</v>
+        <v>2739.19221187358</v>
       </c>
       <c r="N44" t="n">
-        <v>3983.285125812238</v>
+        <v>4389.932064010152</v>
       </c>
       <c r="O44" t="n">
-        <v>4893.440008752982</v>
+        <v>5300.086946950896</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.179490197778</v>
+        <v>6135.95427504831</v>
       </c>
       <c r="Q44" t="n">
         <v>7048</v>
@@ -7681,25 +7681,25 @@
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403255</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2285.562842359567</v>
+        <v>2285.562842359569</v>
       </c>
       <c r="C45" t="n">
-        <v>1920.815456050962</v>
+        <v>1920.815456050964</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.363247063383</v>
+        <v>1569.363247063385</v>
       </c>
       <c r="E45" t="n">
-        <v>1223.229815526098</v>
+        <v>1223.2298155261</v>
       </c>
       <c r="F45" t="n">
-        <v>880.1629040736968</v>
+        <v>880.1629040736987</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685061</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783533</v>
       </c>
       <c r="I45" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149242</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213081</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374319</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117178</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215313</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182051</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368538</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249718</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555786</v>
+        <v>5157.673230555788</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.01548219428</v>
+        <v>4761.015482194282</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166837</v>
+        <v>4356.971427166839</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539039</v>
+        <v>3938.273783539041</v>
       </c>
       <c r="W45" t="n">
-        <v>3501.533235145273</v>
+        <v>3501.533235145274</v>
       </c>
       <c r="X45" t="n">
-        <v>3077.429457927709</v>
+        <v>3077.429457927711</v>
       </c>
       <c r="Y45" t="n">
-        <v>2674.003808668988</v>
+        <v>2674.00380866899</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="I46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967161</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893222</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471541</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754444</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="U46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000026</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>419.8640113926995</v>
+        <v>459.8234496459315</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>179.2523876827511</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>496.2158265844538</v>
       </c>
       <c r="R5" t="n">
         <v>176.4768357656695</v>
@@ -8455,22 +8455,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>763.2599394199324</v>
+        <v>29.51871305984218</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>315.9139665186782</v>
       </c>
       <c r="O11" t="n">
-        <v>746.2187031047677</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>383.4716344543118</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8944,16 +8944,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>864.282983673457</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>176.4768357656695</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>496.2158265843864</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1060.271045550332</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>496.2158265844535</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9409,25 +9409,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>70.05686619108906</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>496.2158265843855</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>265.4073538861147</v>
       </c>
       <c r="K23" t="n">
-        <v>165.4662215866906</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O23" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>301.799730824009</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1060.271045550332</v>
@@ -9898,13 +9898,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>496.2158265849062</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>378.1515460156963</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>864.2829836748426</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10138,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -10360,25 +10360,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>603.2839282494454</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>383.471634454372</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>21.63135028026988</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,13 +10606,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>839.6117546117466</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>176.4768357656695</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>491.4928437003456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>61.18810711406115</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>870.5779326741233</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>685.9089394605951</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>870.5779326741233</v>
+        <v>383.4716344543715</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11311,19 +11311,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>685.9089394605945</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>459.8234496459299</v>
       </c>
       <c r="R44" t="n">
         <v>176.4768357656695</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38834429297799</v>
+        <v>1.38834429291137</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292911142</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292911142</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292912564</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24162,19 +24162,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>134.7013545130397</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
-        <v>368.8061924102448</v>
+        <v>311.241031662811</v>
       </c>
       <c r="Q22" t="n">
         <v>505.228266425598</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292970999</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.388344292428144</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q25" t="n">
-        <v>490.8301642385968</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R25" t="n">
         <v>608.1413738827905</v>
@@ -24423,10 +24423,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692971</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24463,10 +24463,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.388344292468105</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24578,10 +24578,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>211.9747076517084</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.388344291621081</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24903,7 +24903,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292852878</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25019,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.533699957573845</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517085</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.38834429285248</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528331</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292852878</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S40" t="n">
-        <v>302.0616562043788</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
         <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278982</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25699,10 +25699,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.388344292852992</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.533699957572935</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230137</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25845,10 +25845,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.38834429297907</v>
       </c>
     </row>
     <row r="45">
@@ -25964,13 +25964,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.533699957573802</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230137</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26085,10 +26085,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16635.20169611365</v>
+        <v>1366403.055422136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33181.61982254725</v>
+        <v>2720233.373779675</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49728.03794898083</v>
+        <v>4074063.692137215</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68560.63564458965</v>
+        <v>5286709.860492386</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87393.23334019848</v>
+        <v>6499356.028847558</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106225.8310358073</v>
+        <v>7712002.197202723</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125058.4287314161</v>
+        <v>8924648.365557885</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143891.026427025</v>
+        <v>10137294.53391309</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162723.6241226337</v>
+        <v>11349940.70226829</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181556.2218182425</v>
+        <v>12562586.87062357</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200388.8195138513</v>
+        <v>13775233.03897873</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219221.4172094602</v>
+        <v>14987879.20733391</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238054.0149050691</v>
+        <v>16200525.37568909</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256886.6126006782</v>
+        <v>17413171.54404428</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275719.2102962872</v>
+        <v>18625817.71239946</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245017</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245016</v>
       </c>
       <c r="E2" t="n">
+        <v>761428.9894323157</v>
+      </c>
+      <c r="F2" t="n">
+        <v>761428.989432316</v>
+      </c>
+      <c r="G2" t="n">
+        <v>761428.9894323158</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323157</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323419</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323396</v>
+      </c>
+      <c r="K2" t="n">
+        <v>761428.9894323854</v>
+      </c>
+      <c r="L2" t="n">
+        <v>761428.9894323191</v>
+      </c>
+      <c r="M2" t="n">
+        <v>761428.9894323192</v>
+      </c>
+      <c r="N2" t="n">
+        <v>761428.9894323192</v>
+      </c>
+      <c r="O2" t="n">
+        <v>761428.9894323193</v>
+      </c>
+      <c r="P2" t="n">
         <v>761428.9894323124</v>
-      </c>
-      <c r="F2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="G2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="I2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="K2" t="n">
-        <v>761428.9894323121</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323122</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323122</v>
-      </c>
-      <c r="O2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>761428.9894323129</v>
       </c>
     </row>
     <row r="3">
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.080838779856761e-07</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,43 +26426,43 @@
         <v>89075.80382163521</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715407</v>
+        <v>88773.8527671513</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722107</v>
+        <v>88471.49209721838</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850329</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850329</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850329</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850329</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850304</v>
+        <v>13783.46259850532</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850515</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850869</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850354</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850354</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850354</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850354</v>
       </c>
       <c r="P4" t="n">
         <v>13783.46259850301</v>
@@ -26530,46 +26530,46 @@
         <v>-1456302.301597134</v>
       </c>
       <c r="C6" t="n">
-        <v>588698.6494573476</v>
+        <v>588698.6494573501</v>
       </c>
       <c r="D6" t="n">
-        <v>589001.0101272805</v>
+        <v>589001.0101272832</v>
       </c>
       <c r="E6" t="n">
+        <v>608666.1268338123</v>
+      </c>
+      <c r="F6" t="n">
+        <v>608666.1268338127</v>
+      </c>
+      <c r="G6" t="n">
+        <v>608666.1268338125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>608666.1268338123</v>
+      </c>
+      <c r="I6" t="n">
+        <v>608666.1268338365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-11557.87316616558</v>
+      </c>
+      <c r="K6" t="n">
+        <v>608666.1268338767</v>
+      </c>
+      <c r="L6" t="n">
+        <v>608666.1268339253</v>
+      </c>
+      <c r="M6" t="n">
+        <v>608666.1268338156</v>
+      </c>
+      <c r="N6" t="n">
+        <v>608666.1268338156</v>
+      </c>
+      <c r="O6" t="n">
+        <v>608666.1268338157</v>
+      </c>
+      <c r="P6" t="n">
         <v>608666.1268338094</v>
-      </c>
-      <c r="F6" t="n">
-        <v>608666.1268338093</v>
-      </c>
-      <c r="G6" t="n">
-        <v>608666.1268338093</v>
-      </c>
-      <c r="H6" t="n">
-        <v>608666.1268338095</v>
-      </c>
-      <c r="I6" t="n">
-        <v>608666.1268338098</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-11557.87316619058</v>
-      </c>
-      <c r="K6" t="n">
-        <v>608666.1268338091</v>
-      </c>
-      <c r="L6" t="n">
-        <v>608666.1268338093</v>
-      </c>
-      <c r="M6" t="n">
-        <v>608666.1268338092</v>
-      </c>
-      <c r="N6" t="n">
-        <v>608666.1268338092</v>
-      </c>
-      <c r="O6" t="n">
-        <v>608666.1268338095</v>
-      </c>
-      <c r="P6" t="n">
-        <v>608666.1268338099</v>
       </c>
     </row>
   </sheetData>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292977763</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533699957573504</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27699,16 +27699,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N4" t="n">
-        <v>287.9921561219296</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27745,7 +27745,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.388344292911199</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27887,7 +27887,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.533699957573276</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27933,10 +27933,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292912564</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573489</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28164,13 +28164,13 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
@@ -34825,22 +34825,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1166.97829782486</v>
+        <v>1206.937736078092</v>
       </c>
       <c r="L2" t="n">
         <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -34995,16 +34995,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35062,19 +35062,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>1106.113724366168</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35083,10 +35083,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>957.6506849705362</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35229,10 +35229,10 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>151.1650359809836</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35299,22 +35299,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>1690.12127610335</v>
+        <v>956.3800497432594</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35460,13 +35460,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>150.9965757542561</v>
+        <v>302.1616117352398</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35539,22 +35539,22 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>886.664536087034</v>
       </c>
       <c r="O11" t="n">
-        <v>1665.56706971158</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
@@ -35776,28 +35776,28 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>846.92329655093</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1708.593416095087</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36019,7 +36019,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1423.077163267804</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
         <v>1547.320742028618</v>
@@ -36028,7 +36028,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1415.564193191266</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
@@ -36253,25 +36253,25 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>817.1711526232499</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>1415.564193191198</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36484,13 +36484,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>728.859015982733</v>
       </c>
       <c r="K23" t="n">
-        <v>912.5805080188513</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L23" t="n">
         <v>926.8613366834172</v>
@@ -36499,10 +36499,10 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O23" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
@@ -36721,16 +36721,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>1228.661067507426</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M26" t="n">
         <v>1547.320742028618</v>
@@ -36742,13 +36742,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1340.526259006536</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,22 +36958,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1125.265832447857</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1435.033553243198</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
@@ -36982,10 +36982,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,7 +37195,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
@@ -37204,25 +37204,25 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1447.594360671075</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>844.9064928404543</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,16 +37432,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>485.0830123768882</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,13 +37450,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1683.922187033377</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37672,22 +37672,22 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>978.5425401786313</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>980.5364737208731</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
         <v>1714.888365095753</v>
@@ -37906,13 +37906,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1433.023225892756</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
         <v>926.8613366834172</v>
@@ -37921,13 +37921,13 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1714.888365095753</v>
+        <v>1227.782066876002</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
@@ -38149,25 +38149,25 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
         <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>1172.95863593888</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>921.2583080320122</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
